--- a/data/3-1 data/Clinical Covariates_Updated.xlsx
+++ b/data/3-1 data/Clinical Covariates_Updated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\nonn-drive\MoZen\Projects\Project 6-DoD PCa exosome miRs\Clinical Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jieqi/Box/Nelson Chen/Collaborative Projects/Larisa Nonn/prognostic_microRNA_project/data/3-1 data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1719F347-5D69-944B-AC8B-621271630902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="540" windowWidth="19500" windowHeight="14235"/>
+    <workbookView xWindow="1520" yWindow="540" windowWidth="19500" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covariates" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="219">
   <si>
     <t>Age</t>
   </si>
@@ -43,9 +44,6 @@
   </si>
   <si>
     <t>PSA</t>
-  </si>
-  <si>
-    <t>PSA:</t>
   </si>
   <si>
     <t>Unknown</t>
@@ -690,7 +688,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1104,42 +1102,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="5"/>
-    <col min="5" max="5" width="8.125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="1"/>
+    <col min="2" max="2" width="23.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="5"/>
+    <col min="5" max="5" width="8.1640625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1154,9 +1152,9 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1171,9 +1169,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1188,9 +1186,9 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -1205,9 +1203,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -1222,9 +1220,9 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -1239,9 +1237,9 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>1</v>
@@ -1256,9 +1254,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
@@ -1273,9 +1271,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
@@ -1290,9 +1288,9 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -1307,9 +1305,9 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -1324,9 +1322,9 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2</v>
@@ -1341,9 +1339,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1</v>
@@ -1358,9 +1356,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>1</v>
@@ -1375,9 +1373,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>2</v>
@@ -1392,9 +1390,9 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>1</v>
@@ -1409,9 +1407,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>1</v>
@@ -1426,9 +1424,9 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>2</v>
@@ -1443,9 +1441,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -1460,9 +1458,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
@@ -1477,9 +1475,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -1494,9 +1492,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>1</v>
@@ -1511,9 +1509,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -1528,9 +1526,9 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -1545,9 +1543,9 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1</v>
@@ -1562,9 +1560,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1</v>
@@ -1579,9 +1577,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>1</v>
@@ -1596,9 +1594,9 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>1</v>
@@ -1613,9 +1611,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>2</v>
@@ -1630,9 +1628,9 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>1</v>
@@ -1647,9 +1645,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>1</v>
@@ -1664,9 +1662,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1</v>
@@ -1681,9 +1679,9 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>1</v>
@@ -1698,9 +1696,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>2</v>
@@ -1715,9 +1713,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>1</v>
@@ -1732,9 +1730,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>1</v>
@@ -1749,9 +1747,9 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>1</v>
@@ -1766,9 +1764,9 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>2</v>
@@ -1783,9 +1781,9 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>1</v>
@@ -1800,9 +1798,9 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1</v>
@@ -1817,9 +1815,9 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>1</v>
@@ -1834,9 +1832,9 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>1</v>
@@ -1851,9 +1849,9 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>2</v>
@@ -1868,9 +1866,9 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>1</v>
@@ -1885,9 +1883,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>1</v>
@@ -1902,9 +1900,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>1</v>
@@ -1919,9 +1917,9 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>1</v>
@@ -1936,9 +1934,9 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>1</v>
@@ -1953,9 +1951,9 @@
         <v>7.83</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>1</v>
@@ -1970,9 +1968,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>3</v>
@@ -1987,9 +1985,9 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>1</v>
@@ -2004,9 +2002,9 @@
         <v>5.0350000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>3</v>
@@ -2021,9 +2019,9 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>1</v>
@@ -2038,9 +2036,9 @@
         <v>5.399</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>1</v>
@@ -2055,9 +2053,9 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>2</v>
@@ -2072,9 +2070,9 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>2</v>
@@ -2089,9 +2087,9 @@
         <v>5.4050000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>3</v>
@@ -2106,9 +2104,9 @@
         <v>4.8959999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>1</v>
@@ -2123,9 +2121,9 @@
         <v>7.4489999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
@@ -2140,9 +2138,9 @@
         <v>5.5860000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>2</v>
@@ -2157,9 +2155,9 @@
         <v>5.9240000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>1</v>
@@ -2174,9 +2172,9 @@
         <v>5.7690000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>3</v>
@@ -2191,9 +2189,9 @@
         <v>3.5590000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>2</v>
@@ -2208,9 +2206,9 @@
         <v>3.016</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>3</v>
@@ -2225,9 +2223,9 @@
         <v>3.2290000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>1</v>
@@ -2242,9 +2240,9 @@
         <v>4.7759999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>1</v>
@@ -2259,9 +2257,9 @@
         <v>5.0919999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>3</v>
@@ -2276,9 +2274,9 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>1</v>
@@ -2293,9 +2291,9 @@
         <v>5.6550000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>1</v>
@@ -2310,9 +2308,9 @@
         <v>9.7370000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>3</v>
@@ -2327,9 +2325,9 @@
         <v>4.5289999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>2</v>
@@ -2344,9 +2342,9 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>1</v>
@@ -2361,9 +2359,9 @@
         <v>6.2149999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>1</v>
@@ -2378,9 +2376,9 @@
         <v>5.8769999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>1</v>
@@ -2395,9 +2393,9 @@
         <v>8.2119999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>2</v>
@@ -2412,9 +2410,9 @@
         <v>8.0890000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>1</v>
@@ -2429,9 +2427,9 @@
         <v>6.2229999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>3</v>
@@ -2446,9 +2444,9 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>1</v>
@@ -2463,9 +2461,9 @@
         <v>4.8490000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>4</v>
@@ -2480,9 +2478,9 @@
         <v>4.2380000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>1</v>
@@ -2497,9 +2495,9 @@
         <v>4.4390000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>3</v>
@@ -2514,9 +2512,9 @@
         <v>6.5039999999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>3</v>
@@ -2531,9 +2529,9 @@
         <v>9.4220000000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
@@ -2548,9 +2546,9 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>1</v>
@@ -2565,9 +2563,9 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>1</v>
@@ -2582,9 +2580,9 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>1</v>
@@ -2599,9 +2597,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>1</v>
@@ -2616,9 +2614,9 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>1</v>
@@ -2633,9 +2631,9 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>4</v>
@@ -2650,9 +2648,9 @@
         <v>6.4649999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>1</v>
@@ -2667,9 +2665,9 @@
         <v>8.4280000000000008</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>1</v>
@@ -2684,9 +2682,9 @@
         <v>14.17</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>1</v>
@@ -2701,9 +2699,9 @@
         <v>5.5839999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>1</v>
@@ -2718,9 +2716,9 @@
         <v>6.1619999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>1</v>
@@ -2735,9 +2733,9 @@
         <v>4.5860000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>1</v>
@@ -2752,9 +2750,9 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1</v>
@@ -2769,9 +2767,9 @@
         <v>2.9980000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>1</v>
@@ -2786,9 +2784,9 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>2</v>
@@ -2803,9 +2801,9 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>1</v>
@@ -2820,9 +2818,9 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>2</v>
@@ -2837,9 +2835,9 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>1</v>
@@ -2854,9 +2852,9 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>1</v>
@@ -2871,9 +2869,9 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>1</v>
@@ -2888,9 +2886,9 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>1</v>
@@ -2905,9 +2903,9 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>1</v>
@@ -2922,9 +2920,9 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>2</v>
@@ -2939,9 +2937,9 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>1</v>
@@ -2956,9 +2954,9 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>2</v>
@@ -2973,9 +2971,9 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>1</v>
@@ -2990,9 +2988,9 @@
         <v>8.07</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>1</v>
@@ -3007,9 +3005,9 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>1</v>
@@ -3024,9 +3022,9 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>1</v>
@@ -3041,9 +3039,9 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>1</v>
@@ -3058,9 +3056,9 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>1</v>
@@ -3075,9 +3073,9 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>1</v>
@@ -3092,9 +3090,9 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>1</v>
@@ -3109,9 +3107,9 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>1</v>
@@ -3126,9 +3124,9 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>1</v>
@@ -3143,9 +3141,9 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>1</v>
@@ -3160,9 +3158,9 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>1</v>
@@ -3177,9 +3175,9 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>1</v>
@@ -3194,9 +3192,9 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>2</v>
@@ -3211,9 +3209,9 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>1</v>
@@ -3228,9 +3226,9 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>1</v>
@@ -3245,9 +3243,9 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>1</v>
@@ -3262,9 +3260,9 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>3</v>
@@ -3279,9 +3277,9 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>1</v>
@@ -3296,9 +3294,9 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>1</v>
@@ -3313,9 +3311,9 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>1</v>
@@ -3330,9 +3328,9 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>2</v>
@@ -3347,9 +3345,9 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>1</v>
@@ -3364,9 +3362,9 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>2</v>
@@ -3381,9 +3379,9 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>2</v>
@@ -3398,9 +3396,9 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>1</v>
@@ -3415,9 +3413,9 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>3</v>
@@ -3432,9 +3430,9 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>2</v>
@@ -3449,9 +3447,9 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>1</v>
@@ -3466,9 +3464,9 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>1</v>
@@ -3483,9 +3481,9 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>1</v>
@@ -3500,9 +3498,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>1</v>
@@ -3517,9 +3515,9 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>1</v>
@@ -3534,9 +3532,9 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>1</v>
@@ -3551,9 +3549,9 @@
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>1</v>
@@ -3568,9 +3566,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>3</v>
@@ -3585,9 +3583,9 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>3</v>
@@ -3602,9 +3600,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>1</v>
@@ -3619,9 +3617,9 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>1</v>
@@ -3636,9 +3634,9 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>1</v>
@@ -3653,9 +3651,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>1</v>
@@ -3670,9 +3668,9 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>1</v>
@@ -3687,9 +3685,9 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>2</v>
@@ -3704,9 +3702,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>1</v>
@@ -3721,9 +3719,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>2</v>
@@ -3738,9 +3736,9 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>1</v>
@@ -3755,9 +3753,9 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>2</v>
@@ -3772,9 +3770,9 @@
         <v>40.6</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>2</v>
@@ -3789,9 +3787,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>1</v>
@@ -3806,9 +3804,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>1</v>
@@ -3823,9 +3821,9 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>3</v>
@@ -3840,12 +3838,12 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -3857,9 +3855,9 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>1</v>
@@ -3874,9 +3872,9 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>2</v>
@@ -3891,9 +3889,9 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>1</v>
@@ -3908,9 +3906,9 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>3</v>
@@ -3925,9 +3923,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>1</v>
@@ -3942,9 +3940,9 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>1</v>
@@ -3959,9 +3957,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>2</v>
@@ -3976,12 +3974,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -3993,9 +3991,9 @@
         <v>16.89</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>1</v>
@@ -4010,9 +4008,9 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>1</v>
@@ -4027,9 +4025,9 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>1</v>
@@ -4044,9 +4042,9 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>1</v>
@@ -4061,9 +4059,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1</v>
@@ -4078,9 +4076,9 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>3</v>
@@ -4095,9 +4093,9 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>2</v>
@@ -4112,9 +4110,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>2</v>
@@ -4129,9 +4127,9 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>1</v>
@@ -4146,9 +4144,9 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>3</v>
@@ -4163,9 +4161,9 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>2</v>
@@ -4180,9 +4178,9 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>2</v>
@@ -4197,9 +4195,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>1</v>
@@ -4214,9 +4212,9 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>3</v>
@@ -4231,9 +4229,9 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>1</v>
@@ -4248,9 +4246,9 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>1</v>
@@ -4265,9 +4263,9 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>2</v>
@@ -4282,9 +4280,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>3</v>
@@ -4299,9 +4297,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>2</v>
@@ -4316,12 +4314,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -4333,9 +4331,9 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>1</v>
@@ -4350,9 +4348,9 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>1</v>
@@ -4367,9 +4365,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>2</v>
@@ -4384,9 +4382,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>3</v>
@@ -4401,9 +4399,9 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>2</v>
@@ -4418,9 +4416,9 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>1</v>
@@ -4435,9 +4433,9 @@
         <v>16.84</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>3</v>
@@ -4452,9 +4450,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>1</v>
@@ -4469,9 +4467,9 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>1</v>
@@ -4486,9 +4484,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>2</v>
@@ -4503,12 +4501,12 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -4520,9 +4518,9 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>1</v>
@@ -4537,9 +4535,9 @@
         <v>735</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>1</v>
@@ -4554,9 +4552,9 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>1</v>
@@ -4571,9 +4569,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>1</v>
@@ -4595,58 +4593,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="8"/>
+    <col min="1" max="2" width="10.83203125" style="8"/>
     <col min="3" max="3" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="8"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
